--- a/data/trans_bre/IP1004-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -0,76</t>
+          <t>-6,93; -0,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,0</t>
+          <t>-5,14; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,0</t>
+          <t>-0,76; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,45</t>
+          <t>-0,91; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,22</t>
+          <t>-0,74; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,13</t>
+          <t>-0,76; 0,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 218,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP1004-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; -0,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-30,75%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,76</t>
+          <t>-0,51; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,0</t>
+          <t>-0,76; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,53</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,0</t>
+          <t>-0,91; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-53,92%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-64,88%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>-0,73; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,46</t>
+          <t>-0,72; 0,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 338,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -912,97 +912,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-53,87%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-64,85%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 0,25</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 0,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
